--- a/ExampleData/3DSSPPSchema.xlsx
+++ b/ExampleData/3DSSPPSchema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Java\Batchmaker\ExampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C311F98-9548-4ADF-9A29-AB96102059D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1653E16-B0C6-4705-B733-FAD3880B9AE0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{FF092A84-2EE2-4861-9A68-BFD73B2B0DBA}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802CA9F1-1C22-449F-9DDA-0E46C4EC03C6}">
   <dimension ref="A1:BL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT10" sqref="T1:AT10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
